--- a/数据整理/stocks/A股/创业板/300224-正海磁材.xlsx
+++ b/数据整理/stocks/A股/创业板/300224-正海磁材.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>59.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.19</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.79</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>240022</t>
+          <t>003984</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝资源优选混合A</t>
+          <t>嘉实新能源新材料股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.52</t>
+          <t>36.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4178</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011068</t>
+          <t>240022</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝资源优选混合C</t>
+          <t>华宝资源优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>85.52</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.38</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6255</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>88.16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.99</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3627</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003984</t>
+          <t>003985</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实新能源新材料股票A</t>
+          <t>嘉实新能源新材料股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>85.55</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.88</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003985</t>
+          <t>011068</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实新能源新材料股票C</t>
+          <t>华宝资源优选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.55</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>94.31</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.70</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001616</t>
+          <t>002168</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实环保低碳股票</t>
+          <t>嘉实智能汽车股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>42.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9960</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>240022</t>
+          <t>001616</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝资源优选混合A</t>
+          <t>嘉实环保低碳股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.25</t>
+          <t>44.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011068</t>
+          <t>003984</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝资源优选混合C</t>
+          <t>嘉实新能源新材料股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.25</t>
+          <t>38.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>240022</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>华宝资源优选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>21.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7183</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -846,25 +976,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>95.94</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>6.63</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002168</t>
+          <t>003985</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实智能汽车股票</t>
+          <t>嘉实新能源新材料股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003984</t>
+          <t>011068</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实新能源新材料股票A</t>
+          <t>华宝资源优选混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003985</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实新能源新材料股票C</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300224-正海磁材.xlsx
+++ b/数据整理/stocks/A股/创业板/300224-正海磁材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300224-正海磁材.xlsx
+++ b/数据整理/stocks/A股/创业板/300224-正海磁材.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1220,4 +1221,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300224-正海磁材.xlsx
+++ b/数据整理/stocks/A股/创业板/300224-正海磁材.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1281,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9885</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1276,14 +1319,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.67</v>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3802</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1292,13 +1357,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>5.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300224-正海磁材.xlsx
+++ b/数据整理/stocks/A股/创业板/300224-正海磁材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.48</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7571</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1634,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>6.67</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1650,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300224-正海磁材.xlsx
+++ b/数据整理/stocks/A股/创业板/300224-正海磁材.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,323 +455,551 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001616</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实环保低碳股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>59.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.19</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2524</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.96</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003984</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实新能源新材料股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>36.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.4178</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.48</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>240022</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝资源优选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6255</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>240004</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝动力组合混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.16</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3627</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003985</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实新能源新材料股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.55</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2099</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011068</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝资源优选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1800</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004536</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.05</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7571</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9885</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3802</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1131,552 +1359,324 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002952</t>
+          <t>001616</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信多因子量化股票</t>
+          <t>嘉实环保低碳股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>59.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.03</t>
+          <t>89.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>2.2524</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4178</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6255</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3627</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>42.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>76.12</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.9885</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>76.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3802</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008997</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>同泰竞争优势混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0738</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008998</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>同泰竞争优势混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.64</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7571</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.64</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2057</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.67</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300224-正海磁材.xlsx
+++ b/数据整理/stocks/A股/创业板/300224-正海磁材.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.96</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3.48</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>6.67</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.05</v>
       </c>
     </row>
@@ -566,6 +583,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>57.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -697,7 +884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -905,7 +1092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -999,7 +1186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1359,7 +1546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
